--- a/yyyy-mm-dd-promery.xlsx
+++ b/yyyy-mm-dd-promery.xlsx
@@ -751,9 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AMJ43"/>
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -768,267 +770,267 @@
     <col min="10" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>23550</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>23550</v>
+        <v>44310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>44310</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.64583333333333304</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.64583333333333304</v>
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>61.8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8">
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B8" s="10">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="D11" s="11" t="s">
+    <row r="10" spans="1:10">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.8">
+      <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="16">
+        <v>120</v>
+      </c>
+      <c r="E12" s="16">
+        <v>120</v>
+      </c>
+      <c r="F12" s="16">
+        <v>124</v>
+      </c>
+      <c r="G12" s="16">
+        <v>120</v>
+      </c>
+      <c r="H12" s="16">
+        <v>121</v>
+      </c>
+      <c r="I12" s="16">
+        <v>130</v>
+      </c>
+      <c r="J12" s="16">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.8">
       <c r="A13" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="16">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E13" s="16">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F13" s="16">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="G13" s="16">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="H13" s="16">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="I13" s="16">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="J13" s="16">
-        <v>129</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8">
-      <c r="A14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="14"/>
+      <c r="A14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="16">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E14" s="16">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F14" s="16">
         <v>68</v>
       </c>
       <c r="G14" s="16">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14" s="16">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I14" s="16">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J14" s="16">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.8">
-      <c r="A15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="16">
-        <v>60</v>
-      </c>
-      <c r="E15" s="16">
-        <v>60</v>
-      </c>
-      <c r="F15" s="16">
-        <v>68</v>
-      </c>
-      <c r="G15" s="16">
         <v>65</v>
       </c>
-      <c r="H15" s="16">
-        <v>65</v>
-      </c>
-      <c r="I15" s="16">
-        <v>85</v>
-      </c>
-      <c r="J15" s="16">
-        <v>65</v>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="20">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="G17" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="G18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="20">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
-      <c r="A20" s="21" t="s">
+    <row r="19" spans="1:8" ht="15.6">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B19" s="22">
         <v>1.375</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="D20" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="27"/>
+    </row>
     <row r="21" spans="1:8" ht="23.4" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="D21" s="26">
-        <v>1.2</v>
+      <c r="A21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="29">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.375</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="29">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2">
-        <v>1.375</v>
+        <v>1.55</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="29">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2">
-        <v>1.55</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="29">
-        <v>90</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="27"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="30"/>

--- a/yyyy-mm-dd-promery.xlsx
+++ b/yyyy-mm-dd-promery.xlsx
@@ -139,6 +139,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -290,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,9 +383,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -754,7 +752,7 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -994,7 +992,7 @@
       <c r="B21" s="29">
         <v>90</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="26">
         <v>1.375</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -1038,8 +1036,8 @@
       <c r="D36" s="32"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" s="2"/>

--- a/yyyy-mm-dd-promery.xlsx
+++ b/yyyy-mm-dd-promery.xlsx
@@ -130,10 +130,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -291,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,9 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +383,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -977,67 +987,67 @@
         <v>27</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="D20" s="26">
+      <c r="D20" s="36">
         <v>1.2</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="23.4" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>90</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="33">
         <v>1.375</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>60</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="34">
         <v>1.55</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>90</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="35">
         <v>1.7250000000000001</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="2"/>
-      <c r="D37" s="33"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" s="2"/>
@@ -1065,6 +1075,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>